--- a/data/trans_orig/Q5404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{560750C5-E5ED-4754-B3D1-04B136044D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8377757F-1782-44CC-A028-4D942EB4E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E45AEF5F-01EB-420E-A371-1A0B93C81E5E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{631335D7-CD8A-44F2-89DF-572E1E1FB896}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="129">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,82 +101,82 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -188,79 +188,79 @@
     <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>83,62%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>84,59%</t>
+    <t>84,52%</t>
   </si>
   <si>
     <t>88,42%</t>
@@ -275,154 +275,157 @@
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,94%</t>
+    <t>2,82%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>90,06%</t>
   </si>
   <si>
-    <t>87,33%</t>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>92,18%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
   </si>
 </sst>
 </file>
@@ -834,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A07FBD-AEEC-4967-A06E-A41762B02D52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B6529-468C-45A1-ACCC-4F1C3C88C7C8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2290,7 +2293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C696AED9-F4C7-44EF-8604-9C4655E7321A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1597C28-13B6-4683-AE38-29812185DBD1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3746,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B922B3-8E8E-49B9-A206-672D1DE107AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DC513A-FF40-4997-8583-67D78F4C97E8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5202,7 +5205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E355499C-BE1F-4B82-88DD-50D1B4B59703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F00646-B954-4528-9BDB-0AA2DC847783}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6374,7 +6377,7 @@
         <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,7 +6583,7 @@
         <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8377757F-1782-44CC-A028-4D942EB4E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51724DE8-ECB7-47CE-A6C1-BF8A3817AAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{631335D7-CD8A-44F2-89DF-572E1E1FB896}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA574EA6-7DAF-49E4-9087-3383BDC177BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,46 +101,46 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>4,62%</t>
@@ -149,34 +149,34 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>6,0%</t>
+    <t>6,01%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>90,77%</t>
   </si>
   <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -188,166 +188,160 @@
     <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>5,3%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>6,69%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>87,7%</t>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>92,81%</t>
   </si>
   <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>96,22%</t>
   </si>
   <si>
     <t>90,06%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
@@ -356,76 +350,79 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,73%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>7,88%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
 </sst>
 </file>
@@ -837,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9B6529-468C-45A1-ACCC-4F1C3C88C7C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC452AD-6D59-420C-A5CD-99FD9D548AC3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2293,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1597C28-13B6-4683-AE38-29812185DBD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA734F11-6667-4BE9-80EB-0B4D27A63004}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3360,10 +3357,10 @@
         <v>54</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3375,13 @@
         <v>30443</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -3393,13 +3390,13 @@
         <v>75733</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3408,13 +3405,13 @@
         <v>106177</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3426,13 @@
         <v>506158</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H26" s="7">
         <v>583</v>
@@ -3444,13 +3441,13 @@
         <v>621275</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1041</v>
@@ -3459,13 +3456,13 @@
         <v>1127433</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,10 +3563,10 @@
         <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3581,13 @@
         <v>30443</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -3599,13 +3596,13 @@
         <v>75733</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -3614,13 +3611,13 @@
         <v>106177</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3632,13 @@
         <v>506158</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H30" s="7">
         <v>583</v>
@@ -3650,13 +3647,13 @@
         <v>621275</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>1041</v>
@@ -3665,13 +3662,13 @@
         <v>1127433</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DC513A-FF40-4997-8583-67D78F4C97E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DA154C-71C9-4C41-8499-7ECFA7219101}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3766,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4783,13 +4780,13 @@
         <v>10343</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -4798,13 +4795,13 @@
         <v>28701</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -4813,13 +4810,13 @@
         <v>39044</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4831,13 @@
         <v>20952</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -4849,13 +4846,13 @@
         <v>48610</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -4864,13 +4861,13 @@
         <v>69562</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4882,13 @@
         <v>560033</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>594</v>
@@ -4900,13 +4897,13 @@
         <v>700620</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1185</v>
@@ -4915,13 +4912,13 @@
         <v>1260653</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4986,13 @@
         <v>10343</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -5004,13 +5001,13 @@
         <v>28701</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -5019,13 +5016,13 @@
         <v>39044</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5037,13 @@
         <v>20952</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -5055,13 +5052,13 @@
         <v>48610</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -5070,13 +5067,13 @@
         <v>69562</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5088,13 @@
         <v>560033</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>594</v>
@@ -5106,13 +5103,13 @@
         <v>700620</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>1185</v>
@@ -5121,13 +5118,13 @@
         <v>1260653</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F00646-B954-4528-9BDB-0AA2DC847783}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6404A68A-3F7A-4A8F-BD56-E6322D60413C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5222,7 +5219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6239,13 +6236,13 @@
         <v>8953</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>72</v>
@@ -6257,10 +6254,10 @@
         <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -6269,13 +6266,13 @@
         <v>51230</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6290,13 +6287,13 @@
         <v>33363</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>156</v>
@@ -6305,13 +6302,13 @@
         <v>84569</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -6320,13 +6317,13 @@
         <v>117931</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,13 +6338,13 @@
         <v>654605</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>1478</v>
@@ -6356,13 +6353,13 @@
         <v>898703</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>2440</v>
@@ -6371,13 +6368,13 @@
         <v>1553308</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6442,13 @@
         <v>8953</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>72</v>
@@ -6463,10 +6460,10 @@
         <v>28</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>87</v>
@@ -6475,13 +6472,13 @@
         <v>51230</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6493,13 @@
         <v>33363</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>156</v>
@@ -6511,13 +6508,13 @@
         <v>84569</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>206</v>
@@ -6526,13 +6523,13 @@
         <v>117931</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,13 +6544,13 @@
         <v>654605</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H30" s="7">
         <v>1478</v>
@@ -6562,13 +6559,13 @@
         <v>898703</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>2440</v>
@@ -6577,13 +6574,13 @@
         <v>1553308</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51724DE8-ECB7-47CE-A6C1-BF8A3817AAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBAD9F5F-8845-4A47-BD0D-CA29354B99C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA574EA6-7DAF-49E4-9087-3383BDC177BC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{866418F1-35B9-4633-AC76-71841C609A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -104,244 +104,250 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>3,72%</t>
+    <t>3,75%</t>
   </si>
   <si>
     <t>4,25%</t>
   </si>
   <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
   </si>
   <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>90,06%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
@@ -350,79 +356,73 @@
     <t>1,28%</t>
   </si>
   <si>
-    <t>0,73%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>5,33%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
   </si>
   <si>
     <t>6,85%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>88,82%</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC452AD-6D59-420C-A5CD-99FD9D548AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A42F24-8C0C-417E-B3D9-E882B223AD82}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2290,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA734F11-6667-4BE9-80EB-0B4D27A63004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B919E2B-993E-4C0B-A0AE-766AD9C98117}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3357,10 +3357,10 @@
         <v>54</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3375,13 @@
         <v>30443</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -3390,13 +3390,13 @@
         <v>75733</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3405,13 +3405,13 @@
         <v>106177</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3426,13 @@
         <v>506158</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H26" s="7">
         <v>583</v>
@@ -3441,13 +3441,13 @@
         <v>621275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1041</v>
@@ -3456,13 +3456,13 @@
         <v>1127433</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,10 +3563,10 @@
         <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3581,13 @@
         <v>30443</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
         <v>70</v>
@@ -3596,13 +3596,13 @@
         <v>75733</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -3611,13 +3611,13 @@
         <v>106177</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3632,13 @@
         <v>506158</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
         <v>583</v>
@@ -3647,13 +3647,13 @@
         <v>621275</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>1041</v>
@@ -3662,13 +3662,13 @@
         <v>1127433</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DA154C-71C9-4C41-8499-7ECFA7219101}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482D199B-2461-4780-8995-FCBB26DB3127}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3763,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4780,13 +4780,13 @@
         <v>10343</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -4795,13 +4795,13 @@
         <v>28701</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -4810,13 +4810,13 @@
         <v>39044</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4831,13 @@
         <v>20952</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>40</v>
@@ -4846,13 +4846,13 @@
         <v>48610</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -4861,13 +4861,13 @@
         <v>69562</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4882,13 @@
         <v>560033</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>594</v>
@@ -4897,13 +4897,13 @@
         <v>700620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1185</v>
@@ -4912,13 +4912,13 @@
         <v>1260653</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +4986,13 @@
         <v>10343</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -5001,13 +5001,13 @@
         <v>28701</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -5016,13 +5016,13 @@
         <v>39044</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5037,13 @@
         <v>20952</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -5052,13 +5052,13 @@
         <v>48610</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -5067,13 +5067,13 @@
         <v>69562</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5088,13 @@
         <v>560033</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>594</v>
@@ -5103,13 +5103,13 @@
         <v>700620</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>1185</v>
@@ -5118,13 +5118,13 @@
         <v>1260653</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6404A68A-3F7A-4A8F-BD56-E6322D60413C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A137E364-D1E2-4A86-8D6B-F2AF0D6A32CF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5219,7 +5219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6236,13 +6236,13 @@
         <v>8953</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>72</v>
@@ -6254,10 +6254,10 @@
         <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>87</v>
@@ -6266,13 +6266,13 @@
         <v>51230</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6287,13 @@
         <v>33363</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>156</v>
@@ -6302,13 +6302,13 @@
         <v>84569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>206</v>
@@ -6317,13 +6317,13 @@
         <v>117931</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6338,13 @@
         <v>654605</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>1478</v>
@@ -6353,13 +6353,13 @@
         <v>898703</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>2440</v>
@@ -6368,13 +6368,13 @@
         <v>1553308</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6442,13 @@
         <v>8953</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>72</v>
@@ -6460,10 +6460,10 @@
         <v>28</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>87</v>
@@ -6472,13 +6472,13 @@
         <v>51230</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6493,13 @@
         <v>33363</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>156</v>
@@ -6508,13 +6508,13 @@
         <v>84569</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>206</v>
@@ -6523,13 +6523,13 @@
         <v>117931</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6544,13 @@
         <v>654605</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H30" s="7">
         <v>1478</v>
@@ -6559,13 +6559,13 @@
         <v>898703</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>2440</v>
@@ -6574,13 +6574,13 @@
         <v>1553308</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5404-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBAD9F5F-8845-4A47-BD0D-CA29354B99C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B545FEC4-6FE2-4B3E-9C40-267C5EAAD5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{866418F1-35B9-4633-AC76-71841C609A2E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5B2148C6-3D14-4B4D-97AE-41FF2A8CD712}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="329">
   <si>
     <t>Población según si es capaz de manejar dinero en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No puede</t>
@@ -83,19 +83,184 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
   </si>
   <si>
     <t>2,1%</t>
@@ -179,15 +344,171 @@
     <t>93,63%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de manejar dinero en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
     <t>2,74%</t>
   </si>
   <si>
@@ -269,6 +590,153 @@
     <t>Población según si es capaz de manejar dinero en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
     <t>1,75%</t>
   </si>
   <si>
@@ -281,9 +749,6 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
     <t>5,55%</t>
   </si>
   <si>
@@ -302,9 +767,6 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
     <t>6,25%</t>
   </si>
   <si>
@@ -353,76 +815,217 @@
     <t>Población según si es capaz de manejar dinero en 2023 (Tasa respuesta: 31,26%)</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>93,93%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
   </si>
 </sst>
 </file>
@@ -834,8 +1437,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A42F24-8C0C-417E-B3D9-E882B223AD82}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F346C58A-2D18-43A5-97FB-4A96937C4833}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1862,10 +2465,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>10539</v>
+        <v>4526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1877,10 +2480,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>28788</v>
+        <v>6447</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1892,10 +2495,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>39327</v>
+        <v>10972</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1913,10 +2516,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>20724</v>
+        <v>6116</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1928,10 +2531,10 @@
         <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>33708</v>
+        <v>9534</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
@@ -1943,10 +2546,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N25" s="7">
-        <v>54432</v>
+        <v>15650</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>34</v>
@@ -1964,10 +2567,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>489</v>
+        <v>292</v>
       </c>
       <c r="D26" s="7">
-        <v>471204</v>
+        <v>281941</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>37</v>
@@ -1979,10 +2582,10 @@
         <v>39</v>
       </c>
       <c r="H26" s="7">
-        <v>603</v>
+        <v>354</v>
       </c>
       <c r="I26" s="7">
-        <v>614346</v>
+        <v>326954</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>40</v>
@@ -1994,10 +2597,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="7">
-        <v>1092</v>
+        <v>646</v>
       </c>
       <c r="N26" s="7">
-        <v>1085550</v>
+        <v>608895</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>43</v>
@@ -2015,10 +2618,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -2030,10 +2633,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -2045,10 +2648,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -2062,55 +2665,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>10539</v>
+        <v>6013</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
         <v>20</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="I28" s="7">
+        <v>22341</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="7">
         <v>27</v>
       </c>
-      <c r="I28" s="7">
-        <v>28788</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="7">
-        <v>38</v>
-      </c>
       <c r="N28" s="7">
-        <v>39327</v>
+        <v>28355</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,49 +2722,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D29" s="7">
-        <v>20724</v>
+        <v>14607</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I29" s="7">
-        <v>33708</v>
+        <v>24174</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M29" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N29" s="7">
-        <v>54432</v>
+        <v>38781</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,49 +2773,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>489</v>
+        <v>197</v>
       </c>
       <c r="D30" s="7">
-        <v>471204</v>
+        <v>189263</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H30" s="7">
-        <v>603</v>
+        <v>249</v>
       </c>
       <c r="I30" s="7">
-        <v>614346</v>
+        <v>287392</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
-        <v>1092</v>
+        <v>446</v>
       </c>
       <c r="N30" s="7">
-        <v>1085550</v>
+        <v>476655</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,63 +2824,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10539</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="7">
+        <v>27</v>
+      </c>
+      <c r="I32" s="7">
+        <v>28788</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="7">
+        <v>38</v>
+      </c>
+      <c r="N32" s="7">
+        <v>39327</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>23</v>
+      </c>
+      <c r="D33" s="7">
+        <v>20724</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="7">
+        <v>31</v>
+      </c>
+      <c r="I33" s="7">
+        <v>33708</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="7">
+        <v>54</v>
+      </c>
+      <c r="N33" s="7">
+        <v>54432</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>489</v>
+      </c>
+      <c r="D34" s="7">
+        <v>471204</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="7">
+        <v>603</v>
+      </c>
+      <c r="I34" s="7">
+        <v>614346</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1092</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1085550</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2290,8 +3100,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B919E2B-993E-4C0B-A0AE-766AD9C98117}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24763420-47CA-4689-812C-9A47E7C62A18}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2307,7 +3117,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3318,49 +4128,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>23035</v>
+        <v>6010</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>45967</v>
+        <v>5702</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M24" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="N24" s="7">
-        <v>69002</v>
+        <v>11712</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,49 +4179,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>30443</v>
+        <v>7525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>75733</v>
+        <v>17734</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="N25" s="7">
-        <v>106177</v>
+        <v>25259</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,49 +4230,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>458</v>
+        <v>270</v>
       </c>
       <c r="D26" s="7">
-        <v>506158</v>
+        <v>296251</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
-        <v>583</v>
+        <v>321</v>
       </c>
       <c r="I26" s="7">
-        <v>621275</v>
+        <v>330561</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
-        <v>1041</v>
+        <v>591</v>
       </c>
       <c r="N26" s="7">
-        <v>1127433</v>
+        <v>626811</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,10 +4281,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -3486,10 +4296,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -3501,10 +4311,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -3518,55 +4328,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D28" s="7">
-        <v>23035</v>
+        <v>17025</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I28" s="7">
-        <v>45967</v>
+        <v>40265</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M28" s="7">
         <v>51</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" s="7">
-        <v>62</v>
-      </c>
       <c r="N28" s="7">
-        <v>69002</v>
+        <v>57290</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,49 +4385,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D29" s="7">
-        <v>30443</v>
+        <v>22918</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I29" s="7">
-        <v>75733</v>
+        <v>58000</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="M29" s="7">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="N29" s="7">
-        <v>106177</v>
+        <v>80918</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,49 +4436,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>458</v>
+        <v>188</v>
       </c>
       <c r="D30" s="7">
-        <v>506158</v>
+        <v>209908</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="H30" s="7">
-        <v>583</v>
+        <v>262</v>
       </c>
       <c r="I30" s="7">
-        <v>621275</v>
+        <v>290714</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="M30" s="7">
-        <v>1041</v>
+        <v>450</v>
       </c>
       <c r="N30" s="7">
-        <v>1127433</v>
+        <v>500622</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,63 +4487,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>21</v>
+      </c>
+      <c r="D32" s="7">
+        <v>23035</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="7">
+        <v>41</v>
+      </c>
+      <c r="I32" s="7">
+        <v>45967</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M32" s="7">
+        <v>62</v>
+      </c>
+      <c r="N32" s="7">
+        <v>69002</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>25</v>
+      </c>
+      <c r="D33" s="7">
+        <v>30443</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="7">
+        <v>70</v>
+      </c>
+      <c r="I33" s="7">
+        <v>75733</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M33" s="7">
+        <v>95</v>
+      </c>
+      <c r="N33" s="7">
+        <v>106177</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>458</v>
+      </c>
+      <c r="D34" s="7">
+        <v>506158</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="7">
+        <v>583</v>
+      </c>
+      <c r="I34" s="7">
+        <v>621275</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1041</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1127433</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3746,8 +4763,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482D199B-2461-4780-8995-FCBB26DB3127}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AB8A88-EB8C-40D2-83B8-EAEF7500E9AA}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3763,7 +4780,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4774,49 +5791,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>10343</v>
+        <v>1926</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="H24" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I24" s="7">
-        <v>28701</v>
+        <v>1947</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="M24" s="7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>39044</v>
+        <v>3873</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,49 +5842,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>20952</v>
+        <v>4968</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="H25" s="7">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>48610</v>
+        <v>10988</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="M25" s="7">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N25" s="7">
-        <v>69562</v>
+        <v>15956</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,49 +5893,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>591</v>
+        <v>318</v>
       </c>
       <c r="D26" s="7">
-        <v>560033</v>
+        <v>327436</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="H26" s="7">
-        <v>594</v>
+        <v>341</v>
       </c>
       <c r="I26" s="7">
-        <v>700620</v>
+        <v>364828</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="M26" s="7">
-        <v>1185</v>
+        <v>659</v>
       </c>
       <c r="N26" s="7">
-        <v>1260653</v>
+        <v>692264</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,10 +5944,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -4942,10 +5959,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -4957,10 +5974,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -4974,55 +5991,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>10343</v>
+        <v>8417</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I28" s="7">
-        <v>28701</v>
+        <v>26754</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="M28" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N28" s="7">
-        <v>39044</v>
+        <v>35171</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,49 +6048,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D29" s="7">
-        <v>20952</v>
+        <v>15984</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>214</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="H29" s="7">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I29" s="7">
-        <v>48610</v>
+        <v>37622</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="M29" s="7">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="N29" s="7">
-        <v>69562</v>
+        <v>53606</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,49 +6099,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>591</v>
+        <v>273</v>
       </c>
       <c r="D30" s="7">
-        <v>560033</v>
+        <v>232597</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="H30" s="7">
-        <v>594</v>
+        <v>253</v>
       </c>
       <c r="I30" s="7">
-        <v>700620</v>
+        <v>335792</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="M30" s="7">
-        <v>1185</v>
+        <v>526</v>
       </c>
       <c r="N30" s="7">
-        <v>1260653</v>
+        <v>568389</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,63 +6150,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10343</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" s="7">
+        <v>21</v>
+      </c>
+      <c r="I32" s="7">
+        <v>28701</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" s="7">
+        <v>33</v>
+      </c>
+      <c r="N32" s="7">
+        <v>39044</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>24</v>
+      </c>
+      <c r="D33" s="7">
+        <v>20952</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="7">
+        <v>40</v>
+      </c>
+      <c r="I33" s="7">
+        <v>48610</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" s="7">
+        <v>64</v>
+      </c>
+      <c r="N33" s="7">
+        <v>69562</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>591</v>
+      </c>
+      <c r="D34" s="7">
+        <v>560033</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H34" s="7">
+        <v>594</v>
+      </c>
+      <c r="I34" s="7">
+        <v>700620</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1185</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1260653</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5202,8 +6426,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A137E364-D1E2-4A86-8D6B-F2AF0D6A32CF}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837E0383-5DE0-4818-A9DA-C70905906EAC}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5219,7 +6443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6230,49 +7454,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>8953</v>
+        <v>632</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="H24" s="7">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>42277</v>
+        <v>3168</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>261</v>
       </c>
       <c r="M24" s="7">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>51230</v>
+        <v>3800</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>262</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,49 +7505,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>33363</v>
+        <v>6335</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25" s="7">
+        <v>23</v>
+      </c>
+      <c r="I25" s="7">
+        <v>11448</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H25" s="7">
-        <v>156</v>
-      </c>
-      <c r="I25" s="7">
-        <v>84569</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="M25" s="7">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="N25" s="7">
-        <v>117931</v>
+        <v>17783</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>269</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,49 +7556,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>962</v>
+        <v>559</v>
       </c>
       <c r="D26" s="7">
-        <v>654605</v>
+        <v>361197</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="H26" s="7">
-        <v>1478</v>
+        <v>797</v>
       </c>
       <c r="I26" s="7">
-        <v>898703</v>
+        <v>593342</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c r="M26" s="7">
-        <v>2440</v>
+        <v>1356</v>
       </c>
       <c r="N26" s="7">
-        <v>1553308</v>
+        <v>954540</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>277</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,10 +7607,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>696921</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>46</v>
@@ -6398,10 +7622,10 @@
         <v>46</v>
       </c>
       <c r="H27" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1025548</v>
+        <v>607958</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -6413,10 +7637,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>2733</v>
+        <v>1396</v>
       </c>
       <c r="N27" s="7">
-        <v>1722469</v>
+        <v>976124</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -6430,55 +7654,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="7">
-        <v>8953</v>
+        <v>7761</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="H28" s="7">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I28" s="7">
-        <v>42277</v>
+        <v>34762</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>28</v>
+        <v>283</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="M28" s="7">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N28" s="7">
-        <v>51230</v>
+        <v>42523</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>287</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,49 +7711,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D29" s="7">
-        <v>33363</v>
+        <v>25247</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>291</v>
       </c>
       <c r="H29" s="7">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="I29" s="7">
-        <v>84569</v>
+        <v>64746</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="N29" s="7">
-        <v>117931</v>
+        <v>89993</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>295</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>296</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,49 +7762,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>962</v>
+        <v>403</v>
       </c>
       <c r="D30" s="7">
-        <v>654605</v>
+        <v>249005</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="H30" s="7">
-        <v>1478</v>
+        <v>681</v>
       </c>
       <c r="I30" s="7">
-        <v>898703</v>
+        <v>325731</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="M30" s="7">
-        <v>2440</v>
+        <v>1084</v>
       </c>
       <c r="N30" s="7">
-        <v>1553308</v>
+        <v>574736</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>304</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>305</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>99</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,63 +7813,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>457</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282013</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425239</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N31" s="7">
+        <v>707252</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>15</v>
+      </c>
+      <c r="D32" s="7">
+        <v>8394</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="7">
+        <v>72</v>
+      </c>
+      <c r="I32" s="7">
+        <v>37930</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M32" s="7">
+        <v>87</v>
+      </c>
+      <c r="N32" s="7">
+        <v>46324</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>50</v>
+      </c>
+      <c r="D33" s="7">
+        <v>31582</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" s="7">
+        <v>156</v>
+      </c>
+      <c r="I33" s="7">
+        <v>76194</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M33" s="7">
+        <v>206</v>
+      </c>
+      <c r="N33" s="7">
+        <v>107776</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>962</v>
+      </c>
+      <c r="D34" s="7">
+        <v>610202</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1478</v>
+      </c>
+      <c r="I34" s="7">
+        <v>919073</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2440</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1529275</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1027</v>
       </c>
-      <c r="D31" s="7">
-        <v>696921</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>650178</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>1706</v>
       </c>
-      <c r="I31" s="7">
-        <v>1025548</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1033197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>2733</v>
       </c>
-      <c r="N31" s="7">
-        <v>1722469</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1683375</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
